--- a/QOIList.xlsx
+++ b/QOIList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zagreb\Downloads\Docs\Classes\Gov2001\Code\probSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A832FF-601E-4C38-A4AB-42F2DBE9DF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E589573D-A3FD-429B-ADC6-BD1A74A4D87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{242DAC13-3634-4804-9EC3-33EBAAD95D1A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>FunctionName</t>
   </si>
@@ -42,16 +42,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Probability Y &gt; k</t>
+    <t>Y for chosen X</t>
   </si>
   <si>
-    <t>probabilityGreaterThanOutputs</t>
-  </si>
-  <si>
-    <t>Y squared</t>
-  </si>
-  <si>
-    <t>ySquaredOutputs</t>
+    <t>ycOutput</t>
   </si>
 </sst>
 </file>
@@ -418,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1413A3-FA11-49F9-8EC1-BE9E4A884791}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,14 +440,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QOIList.xlsx
+++ b/QOIList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zagreb\Downloads\Docs\Classes\Gov2001\Code\probSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E589573D-A3FD-429B-ADC6-BD1A74A4D87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A67BD5E-7FA0-477E-8BFE-D32A4A17886B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{242DAC13-3634-4804-9EC3-33EBAAD95D1A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>FunctionName</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>ycOutput</t>
+  </si>
+  <si>
+    <t>ycGrtOutput</t>
+  </si>
+  <si>
+    <t>Probability Y &gt; 1</t>
   </si>
 </sst>
 </file>
@@ -412,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1413A3-FA11-49F9-8EC1-BE9E4A884791}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,6 +446,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QOIList.xlsx
+++ b/QOIList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zagreb\Downloads\Docs\Classes\Gov2001\Code\probSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A67BD5E-7FA0-477E-8BFE-D32A4A17886B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD846C8-5A0D-4100-80BB-CEE5B5AD344D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{242DAC13-3634-4804-9EC3-33EBAAD95D1A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>FunctionName</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Y for chosen X</t>
-  </si>
-  <si>
     <t>ycOutput</t>
   </si>
   <si>
@@ -52,6 +49,15 @@
   </si>
   <si>
     <t>Probability Y &gt; 1</t>
+  </si>
+  <si>
+    <t>Predicted Values</t>
+  </si>
+  <si>
+    <t>Expected Values</t>
+  </si>
+  <si>
+    <t>mucOutput</t>
   </si>
 </sst>
 </file>
@@ -418,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1413A3-FA11-49F9-8EC1-BE9E4A884791}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,18 +446,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/QOIList.xlsx
+++ b/QOIList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zagreb\Downloads\Docs\Classes\Gov2001\Code\probSimulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zagre\Documents\probSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD846C8-5A0D-4100-80BB-CEE5B5AD344D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B8AF3D-8447-4EEA-A210-198046CA578D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{242DAC13-3634-4804-9EC3-33EBAAD95D1A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{242DAC13-3634-4804-9EC3-33EBAAD95D1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,16 +427,16 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -444,7 +444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -452,7 +452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -460,7 +460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>

--- a/QOIList.xlsx
+++ b/QOIList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zagreb\Downloads\Docs\Classes\Gov2001\Code\probSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD846C8-5A0D-4100-80BB-CEE5B5AD344D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD4385C-5408-4BBF-8DB1-1EE0767C2DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{242DAC13-3634-4804-9EC3-33EBAAD95D1A}"/>
   </bookViews>
@@ -57,7 +57,7 @@
     <t>Expected Values</t>
   </si>
   <si>
-    <t>mucOutput</t>
+    <t>expValsOutput</t>
   </si>
 </sst>
 </file>

--- a/QOIList.xlsx
+++ b/QOIList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zagreb\Downloads\Docs\Classes\Gov2001\Code\probSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD4385C-5408-4BBF-8DB1-1EE0767C2DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF32D9B5-ED9B-4906-913F-E0DCE698636E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{242DAC13-3634-4804-9EC3-33EBAAD95D1A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>FunctionName</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>expValsOutput</t>
+  </si>
+  <si>
+    <t>paramHistOutput</t>
+  </si>
+  <si>
+    <t>Sim. Parameter</t>
   </si>
 </sst>
 </file>
@@ -424,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1413A3-FA11-49F9-8EC1-BE9E4A884791}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,6 +474,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QOIList.xlsx
+++ b/QOIList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zagre\Documents\probSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7B7335-17E9-4F36-BA54-2C49757A218E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1397773-1D0A-4FF5-9477-A52378FA50EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{242DAC13-3634-4804-9EC3-33EBAAD95D1A}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t>expValsOutput</t>
   </si>
   <si>
-    <t>Sim. Parameter</t>
+    <t>Sim Parameter</t>
   </si>
 </sst>
 </file>

--- a/QOIList.xlsx
+++ b/QOIList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zagre\Documents\probSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1397773-1D0A-4FF5-9477-A52378FA50EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4371CC20-4B38-447F-BED7-A9D35199AFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{242DAC13-3634-4804-9EC3-33EBAAD95D1A}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t>expValsOutput</t>
   </si>
   <si>
-    <t>Sim Parameter</t>
+    <t>Sim. Parameter</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
